--- a/data/trans_bre/P19C04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Estudios-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.3470131238664427</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3283641976527988</v>
+        <v>-0.3283641976527987</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.41880863660571</v>
+        <v>-12.33597133764327</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-19.19539945209017</v>
+        <v>-19.3316854973013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-17.46783671719673</v>
+        <v>-16.91790076539933</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-16.04006912017322</v>
+        <v>-15.77449720578835</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3765484697102682</v>
+        <v>-0.3679058326385936</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4356718179597916</v>
+        <v>-0.4409777710525212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4764129953605343</v>
+        <v>-0.4657091601744826</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.428332214824043</v>
+        <v>-0.422398335779878</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.788563394684519</v>
+        <v>-3.693278002617331</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-10.14343565840571</v>
+        <v>-10.26794737219177</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-5.74458404949748</v>
+        <v>-6.000576442448211</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-6.919109192443515</v>
+        <v>-7.368246496180271</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1303358977025737</v>
+        <v>-0.1292199111755077</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.2618612513655441</v>
+        <v>-0.2718456904793143</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.1899344020484103</v>
+        <v>-0.2021888164204479</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.2203558260967065</v>
+        <v>-0.2352565585624417</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-4.859111737625628</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-5.071369329831668</v>
+        <v>-5.071369329831671</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3629370136643195</v>
@@ -749,7 +749,7 @@
         <v>-0.2983404295553015</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3483263770010184</v>
+        <v>-0.3483263770010186</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.525989542170986</v>
+        <v>-9.336709415382529</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-9.764082127505503</v>
+        <v>-9.68502986645121</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.297700545337464</v>
+        <v>-7.426611819538394</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-7.163732368593855</v>
+        <v>-7.303466400527589</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4858464758366522</v>
+        <v>-0.4693126812125267</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4400902459674982</v>
+        <v>-0.4351250643517194</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4190418266515438</v>
+        <v>-0.4124386335581074</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4445840383932408</v>
+        <v>-0.4517835017372235</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-3.58522314127746</v>
+        <v>-3.755910363843059</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-4.377508587892798</v>
+        <v>-4.314576616310892</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-2.299417913318056</v>
+        <v>-2.649369463669333</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-3.176108173094073</v>
+        <v>-3.275795516473221</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2270596727739477</v>
+        <v>-0.2164314812541024</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2215977647250819</v>
+        <v>-0.2188150107348631</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1601902572744202</v>
+        <v>-0.1655913805699065</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2319349833082869</v>
+        <v>-0.2439445599262064</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.797200169808946</v>
+        <v>-6.035995465545286</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.186054784144513</v>
+        <v>-6.785705284308493</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.414826888415522</v>
+        <v>-4.61902514422638</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.277823758595067</v>
+        <v>-6.119609640303173</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5850387747579473</v>
+        <v>-0.586686412254776</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5741539801998558</v>
+        <v>-0.5271974973308111</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4186607123114817</v>
+        <v>-0.4429406869194179</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6359300994911734</v>
+        <v>-0.6214909607001069</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.862379059844994</v>
+        <v>1.411052983492932</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.418072326374026</v>
+        <v>1.876115358738191</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.895538267790975</v>
+        <v>2.519189427069775</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.152754635792177</v>
+        <v>-1.040338074345005</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3107019629974562</v>
+        <v>0.2500594007761008</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1903304143341654</v>
+        <v>0.2809347072924218</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4357769753629789</v>
+        <v>0.3628339934407209</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.1522293114360945</v>
+        <v>-0.1529560496956478</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-4.7022248812954</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-4.882307380402905</v>
+        <v>-4.882307380402907</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2637653051612142</v>
@@ -949,7 +949,7 @@
         <v>-0.2644685086396341</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2979261267199873</v>
+        <v>-0.2979261267199875</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.35326837853745</v>
+        <v>-7.596227424567554</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-9.336842813021363</v>
+        <v>-9.45381095693164</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-6.623572936209493</v>
+        <v>-6.941837051479594</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.363666317379186</v>
+        <v>-6.375517118180525</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3504454664246425</v>
+        <v>-0.3566994883300048</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3613635504386076</v>
+        <v>-0.3585015947034888</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3497504865772958</v>
+        <v>-0.3633823182437838</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3687221149249445</v>
+        <v>-0.3683420942511279</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-3.177283356707466</v>
+        <v>-3.153019508360243</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-5.059542446810898</v>
+        <v>-5.121459256672649</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-2.488023407015726</v>
+        <v>-2.863319140840363</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-3.344790667133898</v>
+        <v>-3.177993413203914</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1685823993322264</v>
+        <v>-0.1654728656848034</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2139425199637805</v>
+        <v>-0.2155982278361301</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.144136262110047</v>
+        <v>-0.1704474263841568</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2147243805255779</v>
+        <v>-0.2109202502707589</v>
       </c>
     </row>
     <row r="16">
